--- a/Leetcode_150_challenge.xlsx
+++ b/Leetcode_150_challenge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Leetcode_150_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502506A7-139A-42B9-A70F-16275666A00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD5D19B-D2C9-449A-A405-291C2EB0B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB447855-6AA0-463B-8026-A1186D00A3CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Problem</t>
   </si>
@@ -175,12 +175,37 @@
   <si>
     <t>Think of it as pivot. Get products starting from 1 to right. Then take thaat array in for loop again and multiply with reverse products.</t>
   </si>
+  <si>
+    <t>Since majority element will be always present n/2 times, just sort the array and return n/2th element.</t>
+  </si>
+  <si>
+    <t>Trapping rain water</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to calculate trapped water, limiting height is left side. Calculate max left, max right arrays for every I position and use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Min(MaxL,MaxR) - H[i] and add it to calculate trapped water.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +235,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -217,12 +264,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -238,7 +279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,59 +317,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD00000"/>
+      <color rgb="FFE04040"/>
+      <color rgb="FFE06666"/>
+      <color rgb="FFCD2929"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -633,248 +685,258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131AB193-7762-4DE5-B735-45D330CD43B8}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
     <col min="4" max="4" width="169.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10">
+      <c r="A3" s="2">
         <v>88</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13">
+      <c r="A4" s="2">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13">
+      <c r="A5" s="2">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="68.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13">
+      <c r="A6" s="2">
         <v>80</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11">
         <v>169</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13">
+      <c r="A8" s="2">
         <v>189</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13">
+      <c r="A9" s="2">
         <v>121</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13">
+      <c r="A10" s="2">
         <v>122</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13">
+      <c r="A11" s="2">
         <v>238</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13">
+      <c r="A12" s="2">
         <v>134</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+    <row r="13" spans="1:4" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>42</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode_150_challenge.xlsx
+++ b/Leetcode_150_challenge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Leetcode_150_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD5D19B-D2C9-449A-A405-291C2EB0B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6A0928-B0AD-4570-A428-ED31CF0380FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB447855-6AA0-463B-8026-A1186D00A3CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Problem</t>
   </si>
@@ -173,9 +173,6 @@
 that cannot be the start index as diff is negative. start index = 0, and if total &lt;0, start = i + 1. sum and total are calculating the diff. If diff &lt; 0 return -1 else return start.</t>
   </si>
   <si>
-    <t>Think of it as pivot. Get products starting from 1 to right. Then take thaat array in for loop again and multiply with reverse products.</t>
-  </si>
-  <si>
     <t>Since majority element will be always present n/2 times, just sort the array and return n/2th element.</t>
   </si>
   <si>
@@ -185,8 +182,59 @@
     <t>Hard</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">to calculate trapped water, limiting height is left side. Calculate max left, max right arrays for every I position and use </t>
+    <t>Candy</t>
+  </si>
+  <si>
+    <r>
+      <t>Following 2 rules: intialize left and right array of size n with 1 candy each. Using two for loops for each side,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LEFT- for i = 1 to n-1, if i &gt; i-1 then left[i] = left[i-1] + 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>which means the bigger rank will get 1+
+ candy than smaller one. Similarly for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RIGHT, compare n-2 with n-1 term and right[i] = right[i+1] + right[i] where i = n-2 till 0. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return candies += max[left and right at i].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To calculate trapped water, limiting height is left side. Calculate max left, max right arrays for every I position and use </t>
     </r>
     <r>
       <rPr>
@@ -199,6 +247,18 @@
       </rPr>
       <t>Min(MaxL,MaxR) - H[i] and add it to calculate trapped water.</t>
     </r>
+  </si>
+  <si>
+    <t>Think of it as pivot. Get products starting from 1 to right. Then take that array in for loop again and multiply with reverse products.</t>
+  </si>
+  <si>
+    <t>Length Of Last Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start with the last index with for loop. If s[i] &gt;= 'a' &amp;&amp; s[i] &lt;= 'z' || s[i] &gt;= 'A' &amp;&amp; s[i] &lt;= 'Z', turn flag = true. In else loop, check if flag is true, return count. return count later too to cover the if part of for loop. </t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
   </si>
 </sst>
 </file>
@@ -290,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -313,11 +373,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -329,7 +404,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -345,22 +419,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131AB193-7762-4DE5-B735-45D330CD43B8}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,16 +775,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -716,13 +792,13 @@
       <c r="A3" s="2">
         <v>88</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -730,13 +806,13 @@
       <c r="A4" s="2">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -744,13 +820,13 @@
       <c r="A5" s="2">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -758,41 +834,41 @@
       <c r="A6" s="2">
         <v>80</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
+    <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
         <v>169</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>25</v>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>189</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -800,27 +876,27 @@
       <c r="A9" s="2">
         <v>121</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>122</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -828,61 +904,82 @@
       <c r="A11" s="2">
         <v>238</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>134</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>42</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>135</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+    <row r="15" spans="1:4" ht="27.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>75</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>

--- a/Leetcode_150_challenge.xlsx
+++ b/Leetcode_150_challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Leetcode_150_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6A0928-B0AD-4570-A428-ED31CF0380FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A47E7-3CF1-43A6-8FFC-787C72A0748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB447855-6AA0-463B-8026-A1186D00A3CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Problem</t>
   </si>
@@ -259,6 +259,57 @@
   </si>
   <si>
     <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>CountingIslands</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses a depth first search method. Requires additional function called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Check_adj" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">which will check (r+1,c) (r-1,c) (r, c+1) (r, c-1) indexes. This recursive method also requires an exit stratergy. If boundaries 
+exceeded then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">return, OR if grid[r][c] == '0' then return. Also, grid[r][c] == '0' as we dont want 1st to be counted double. therefore, convert 1s to zeros as soon as you encounter. For the numCount function, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count++ as soon as 1 is encountered. Enter checkAdj from there.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -392,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -436,6 +487,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,7 +816,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -980,12 +1034,21 @@
       <c r="C16" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>200</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>

--- a/Leetcode_150_challenge.xlsx
+++ b/Leetcode_150_challenge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Leetcode_150_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A47E7-3CF1-43A6-8FFC-787C72A0748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03865BAE-BC63-429F-B1FA-306AF5BA21F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB447855-6AA0-463B-8026-A1186D00A3CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Problem</t>
   </si>
@@ -309,6 +309,33 @@
         <scheme val="minor"/>
       </rPr>
       <t>count++ as soon as 1 is encountered. Enter checkAdj from there.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The trick is to sort the array. Sorting will ensure the first and last element of the string vector have the same prefix. The next step is to make sure we take the min size as we don’t want </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index out of bounds
+error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. After finding min(first and last element), we simply start a for loop with min chars element, do a if(first[i] != last[i]) return result else result += first[i].</t>
     </r>
   </si>
 </sst>
@@ -815,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131AB193-7762-4DE5-B735-45D330CD43B8}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1034,7 +1061,9 @@
       <c r="C16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">

--- a/Leetcode_150_challenge.xlsx
+++ b/Leetcode_150_challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Leetcode_150_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03865BAE-BC63-429F-B1FA-306AF5BA21F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4180EF-2BCF-4F11-A39B-9F3ABD85B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB447855-6AA0-463B-8026-A1186D00A3CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Problem</t>
   </si>
@@ -233,29 +233,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To calculate trapped water, limiting height is left side. Calculate max left, max right arrays for every I position and use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Min(MaxL,MaxR) - H[i] and add it to calculate trapped water.</t>
-    </r>
-  </si>
-  <si>
     <t>Think of it as pivot. Get products starting from 1 to right. Then take that array in for loop again and multiply with reverse products.</t>
   </si>
   <si>
     <t>Length Of Last Word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start with the last index with for loop. If s[i] &gt;= 'a' &amp;&amp; s[i] &lt;= 'z' || s[i] &gt;= 'A' &amp;&amp; s[i] &lt;= 'Z', turn flag = true. In else loop, check if flag is true, return count. return count later too to cover the if part of for loop. </t>
   </si>
   <si>
     <t>Longest Common Prefix</t>
@@ -336,6 +317,135 @@
         <scheme val="minor"/>
       </rPr>
       <t>. After finding min(first and last element), we simply start a for loop with min chars element, do a if(first[i] != last[i]) return result else result += first[i].</t>
+    </r>
+  </si>
+  <si>
+    <t>First occurance of substring</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To calculate trapped water, limiting height is left side. Calculate max left, max right arrays for every I position and use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Min(MaxL,MaxR) - H[i] and add
+ it to calculate trapped water.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Start with the last index with for loop. If s[i] &gt;= 'a' &amp;&amp; s[i] &lt;= 'z' || s[i] &gt;= 'A' &amp;&amp; s[i] &lt;= 'Z', turn flag = true. In else loop, check if flag is true, return count.
+ return count later too to cover the if part of for loop. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Multiple ways to do it - two pointer using while loop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nested loop/ brute force method(either haystack[i+j] == needle[j] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">haystack[i+j] != needle[j])
+2. I chose != method as it is easy to understand.
+3. Start two for loops : one, 0 --&gt; H.size - N.size (less than equal) &amp; second 0 --&gt; N.size.
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [i+j] != [j] then break </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">keep going until [j == N.size -1]
+5. If that happens, that means it has reached a place where all chars of needle matches Haystack, hence </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return i return -1 in the end
+6. Check for N.size &gt; H.size --&gt; if true, return -1.</t>
     </r>
   </si>
 </sst>
@@ -842,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131AB193-7762-4DE5-B735-45D330CD43B8}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,7 +961,7 @@
     <col min="1" max="1" width="6.90625" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.453125" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="169.90625" customWidth="1"/>
+    <col min="4" max="4" width="126.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -869,7 +979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>88</v>
       </c>
@@ -883,7 +993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="76" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>27</v>
       </c>
@@ -897,7 +1007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>26</v>
       </c>
@@ -911,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="68.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="95.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>80</v>
       </c>
@@ -925,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>169</v>
       </c>
@@ -939,7 +1049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>189</v>
       </c>
@@ -953,7 +1063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="124" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>121</v>
       </c>
@@ -967,7 +1077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>122</v>
       </c>
@@ -981,7 +1091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="59.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>238</v>
       </c>
@@ -992,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>134</v>
       </c>
@@ -1009,7 +1119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>42</v>
       </c>
@@ -1019,11 +1129,11 @@
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>135</v>
       </c>
@@ -1037,53 +1147,61 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>75</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="78.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="96.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>200</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="122.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>

--- a/Leetcode_150_challenge.xlsx
+++ b/Leetcode_150_challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Leetcode_150_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4180EF-2BCF-4F11-A39B-9F3ABD85B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3DB84-A756-4222-A56D-D5A6F6755728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB447855-6AA0-463B-8026-A1186D00A3CE}"/>
   </bookViews>
@@ -340,10 +340,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Start with the last index with for loop. If s[i] &gt;= 'a' &amp;&amp; s[i] &lt;= 'z' || s[i] &gt;= 'A' &amp;&amp; s[i] &lt;= 'Z', turn flag = true. In else loop, check if flag is true, return count.
- return count later too to cover the if part of for loop. </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. Multiple ways to do it - two pointer using while loop </t>
     </r>
@@ -446,6 +442,36 @@
       </rPr>
       <t>return i return -1 in the end
 6. Check for N.size &gt; H.size --&gt; if true, return -1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Start with the last index with for loop.
+2. If s[i] is between a to z OR A to Z, turn flag = true and increase count. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE: Can also use inbuilt func called isalpha(s[i]) in C++.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. In else loop, (meaning if the char is not an alphabet, and is a space), check if flag is tru.
+4. If flag is false, then it hasn't encountered with any alphabets. If TRUE, then return count.
+5. return count later too to cover the if part of for loop. </t>
     </r>
   </si>
 </sst>
@@ -952,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131AB193-7762-4DE5-B735-45D330CD43B8}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1158,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1200,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/Leetcode_150_challenge.xlsx
+++ b/Leetcode_150_challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Leetcode_150_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3DB84-A756-4222-A56D-D5A6F6755728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F2A0C-889A-4A8B-B2A7-E45408A3A1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB447855-6AA0-463B-8026-A1186D00A3CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Problem</t>
   </si>
@@ -473,6 +473,19 @@
 4. If flag is false, then it hasn't encountered with any alphabets. If TRUE, then return count.
 5. return count later too to cover the if part of for loop. </t>
     </r>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Two approaches can be taken : (1) two pointer approach &amp; (2) remove unecessary elements and only take alphanumeric elements.
+2. I took the second approach. Initialise a new empty string and add only alnum elements to string. 
+3. Convert tolower() before adding that alnum char to new string.
+4. Once that happens, reverse that string and compare to og string. 
+5. Is matches then return true else false. </t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
   </si>
 </sst>
 </file>
@@ -532,7 +545,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +573,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -653,6 +672,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131AB193-7762-4DE5-B735-45D330CD43B8}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,7 +1167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>42</v>
       </c>
@@ -1201,7 +1223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="96.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="78.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>200</v>
       </c>
@@ -1215,7 +1237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="122.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="111.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>28</v>
       </c>
@@ -1225,21 +1247,35 @@
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+    <row r="19" spans="1:4" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>125</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>392</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>

--- a/Leetcode_150_challenge.xlsx
+++ b/Leetcode_150_challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Leetcode_150_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F2A0C-889A-4A8B-B2A7-E45408A3A1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00071566-9F97-4B8A-A458-61CAB9C422F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB447855-6AA0-463B-8026-A1186D00A3CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Problem</t>
   </si>
@@ -486,6 +486,13 @@
   </si>
   <si>
     <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>1. Used the approach for 2 pointer.
+2. Initialize two pointers i and j. These go from 0 -&gt; s.size() - 1 and t.size() -1 respectively.
+3. The goal is to increase pointer for s only when char matches so that the next char can be searched. The pointer for t(or the striong in which we are searching) increases everytime, hence it is the fast pointer.
+4. if the string matches then increase s pointer i.e. i. 
+5. If the i reaches to s.size() then return true. Return false by default.</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131AB193-7762-4DE5-B735-45D330CD43B8}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1265,7 +1272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>392</v>
       </c>
@@ -1275,7 +1282,9 @@
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>

--- a/Leetcode_150_challenge.xlsx
+++ b/Leetcode_150_challenge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Leetcode_150_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00071566-9F97-4B8A-A458-61CAB9C422F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46522AC-54AB-4EA9-BACD-B83DFBAEF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB447855-6AA0-463B-8026-A1186D00A3CE}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{EB447855-6AA0-463B-8026-A1186D00A3CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode - Interview 150" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Problem</t>
   </si>
@@ -121,24 +121,6 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use two pointers, L starts with 0 and stays on the lowest arr[L] elemnt. It is going to be profitable if arr[L] &lt; arr[R] since L = buy and R = sell. We want to buy lowest 
-and sell highest.R moves on in a for loop. If profitable, update maxProfit = max(maxProfit, arr[R]- arr[L]). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>else we have found an element at R which has a lower val 
-than arr[L]. This means we need to update L pointer to out NEW lowest value at R. hence L = R. Return max profit.</t>
-    </r>
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock II</t>
@@ -493,6 +475,117 @@
 3. The goal is to increase pointer for s only when char matches so that the next char can be searched. The pointer for t(or the striong in which we are searching) increases everytime, hence it is the fast pointer.
 4. if the string matches then increase s pointer i.e. i. 
 5. If the i reaches to s.size() then return true. Return false by default.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Use two pointers, L and R = 0.
+2. Starts with 0 and stays on the lowest arr[L] elemnt. 
+3. It is going to be profitable if arr[L] &lt; arr[R] since L = buy and R = sell. We want to buy lowest and sell highest.
+4.  R moves on in a for loop. If profitable, update maxProfit = max(maxProfit, arr[R]- arr[L]). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else we have found an element at R which has a lower val 
+than arr[L]. This means we need to update L pointer to out NEW lowest value at R. hence L = R. Return max profit.</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. We have to return min_length of subarray &gt;= target. Therefore we need to initiate a min_length variable to a high number maybe nums.size()+1.
+2. We use the sliding window method. Start with initiating two pointers l, r = 0 and sum = 0.
+3. While (l &lt; nums.size() &amp;&amp; r &lt;= nums.size()), if sum &gt;= target then we subtract stuff. l++, min length is calculated by min(min_length, r-l) and left most element is removed from sum.
+4. Else r++, sum +=nums[r] i.e. add right element to reach the target. 
+5. Also, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note that sum is added only if r&lt; nums.size(). Else r exceeds length and gives error that nums[r] does not exist. 
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Edge case would be if min length did not change means there is no sum hence return 0.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Longest Substring without repeating characters</t>
+  </si>
+  <si>
+    <t>Containing most water</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Sorted</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Goal is to find max area. It is calculated by B*H i.e. (r-l)* min(height).
+2. Start by using two pointers l = 0 and r = n.size() -1,
+3. While(l &lt; r), calc area = min(height[l], height[r])* (r-l). Update max_area to max(max_area, area).
+4. Aim is to Maximize area therefore, move pointer of lower height value, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">because there might be a chance to encounter a bigger value.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. Return max_area.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Goal is to find index of two numbers whose sum is = target.
+2. Start by using two pointers l = 0 and r = n.size() -1,
+3. While(l &lt; r), if([l]+ [r] &gt; target){then reduce value therefore r--} , else if([l]+ [r] &lt; target){then add value therefore l++}
+4. Aim is to find l and r that sum to target. 
+5. Return {l+1, r+1} as it is 1-indexed.</t>
+  </si>
+  <si>
+    <t>Maximum number of Vowels in substring of given length</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray</t>
+  </si>
+  <si>
+    <t>To-Do</t>
   </si>
 </sst>
 </file>
@@ -632,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -640,10 +733,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -682,6 +771,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,32 +1097,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131AB193-7762-4DE5-B735-45D330CD43B8}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.453125" customWidth="1"/>
+    <col min="2" max="2" width="58.26953125" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="126.54296875" customWidth="1"/>
+    <col min="4" max="4" width="168.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1038,13 +1130,13 @@
       <c r="A3" s="2">
         <v>88</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1052,27 +1144,27 @@
       <c r="A4" s="2">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1080,41 +1172,41 @@
       <c r="A6" s="2">
         <v>80</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>169</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>189</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1122,199 +1214,277 @@
       <c r="A9" s="2">
         <v>121</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>122</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="59.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>238</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>20</v>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>134</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>22</v>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>23</v>
+      <c r="D12" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>42</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>135</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>75</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>34</v>
+      <c r="D16" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>200</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="111.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>28</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>37</v>
+      <c r="D18" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>125</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>39</v>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>40</v>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>392</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>41</v>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>209</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>11</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="98.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>167</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="98.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>1456</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="98.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>643</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="98.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="98.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="98.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="98.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
